--- a/temporary-attachments.xlsx
+++ b/temporary-attachments.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\fyptempdocument\doc\1704658123872-3b60c2f0-d9c0-4c92-8971-8caf4ca96b26..jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\Desktop\Best-Indian-Punjabi-Samosa-Recipe.jpg</t>
+  </si>
+  <si>
+    <t>D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\fyptempdocument\doc\1704735419442-5ce111d5-dd7c-41f3-b432-7abff9a14dd6..jpg</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C5"/>
@@ -438,6 +444,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.070037841796875</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
